--- a/combustible/Combustibles.xlsx
+++ b/combustible/Combustibles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Switch UH\BDLP_nov 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/combustible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3BBC2B-1821-40F1-9996-9BCF6DC0B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218D3CE-0A45-9546-903C-ED71345CDF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ccombuco" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>!Num</t>
   </si>
@@ -90,13 +90,34 @@
   </si>
   <si>
     <t>BIOMASA</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,7 +655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,11 +953,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,11 +1002,14 @@
       <c r="D2">
         <v>6.69</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -992,11 +1022,14 @@
       <c r="D3">
         <v>6.56</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1009,11 +1042,14 @@
       <c r="D4">
         <v>16</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1026,11 +1062,14 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1043,11 +1082,14 @@
       <c r="D6">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1060,11 +1102,14 @@
       <c r="D7">
         <v>29.07</v>
       </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1077,11 +1122,14 @@
       <c r="D8">
         <v>1.1499999999999999</v>
       </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1094,11 +1142,14 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1111,11 +1162,14 @@
       <c r="D10">
         <v>12.7</v>
       </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1127,6 +1181,9 @@
       </c>
       <c r="D11">
         <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1138,15 +1195,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -1311,6 +1359,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1318,13 +1375,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12F9926-91D6-4D5D-A5E1-4B755B613CE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AF34C50-1CFA-462F-B690-16DFD667D84F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
+    <ds:schemaRef ds:uri="1d72c402-e5ab-4c37-8652-a8939ba1b122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AF34C50-1CFA-462F-B690-16DFD667D84F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12F9926-91D6-4D5D-A5E1-4B755B613CE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72F5782-06AF-4DE1-9E08-DCE7237FD751}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72F5782-06AF-4DE1-9E08-DCE7237FD751}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>